--- a/gausskit/examples/benchmark/benchmark_energy_scf.xlsx
+++ b/gausskit/examples/benchmark/benchmark_energy_scf.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="B3LYP_genecp" sheetId="1" r:id="rId1"/>
-    <sheet name="H2" sheetId="2" r:id="rId2"/>
-    <sheet name="HF_631pGdp" sheetId="3" r:id="rId3"/>
-    <sheet name="HF_STO3G" sheetId="4" r:id="rId4"/>
+    <sheet name="HF_631pGdp" sheetId="1" r:id="rId1"/>
+    <sheet name="H2O" sheetId="2" r:id="rId2"/>
+    <sheet name="B3LYP_genecp" sheetId="3" r:id="rId3"/>
+    <sheet name="H2" sheetId="4" r:id="rId4"/>
     <sheet name="HF_genecp" sheetId="5" r:id="rId5"/>
-    <sheet name="H2O" sheetId="6" r:id="rId6"/>
-    <sheet name="CAMB3LYP_631pGdp" sheetId="7" r:id="rId7"/>
-    <sheet name="CAMB3LYP_STO3G" sheetId="8" r:id="rId8"/>
-    <sheet name="CAMB3LYP_genecp" sheetId="9" r:id="rId9"/>
-    <sheet name="B3LYP_631pGdp" sheetId="10" r:id="rId10"/>
-    <sheet name="B3LYP_STO3G" sheetId="11" r:id="rId11"/>
+    <sheet name="B3LYP_631pGdp" sheetId="6" r:id="rId6"/>
+    <sheet name="B3LYP_STO3G" sheetId="7" r:id="rId7"/>
+    <sheet name="HF_STO3G" sheetId="8" r:id="rId8"/>
+    <sheet name="CAMB3LYP_STO3G" sheetId="9" r:id="rId9"/>
+    <sheet name="CAMB3LYP_genecp" sheetId="10" r:id="rId10"/>
+    <sheet name="CAMB3LYP_631pGdp" sheetId="11" r:id="rId11"/>
     <sheet name="Global" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="33">
   <si>
     <t>Filename</t>
   </si>
@@ -48,24 +48,72 @@
     <t>ΔE (eV)</t>
   </si>
   <si>
+    <t>H2O_HF_631pGdp.log</t>
+  </si>
+  <si>
+    <t>H2_HF_631pGdp.log</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>631pGdp</t>
+  </si>
+  <si>
+    <t>H2O_B3LYP_genecp.log</t>
+  </si>
+  <si>
+    <t>H2O_CAMB3LYP_genecp.log</t>
+  </si>
+  <si>
+    <t>H2O_B3LYP_631pGdp.log</t>
+  </si>
+  <si>
+    <t>H2O_CAMB3LYP_631pGdp.log</t>
+  </si>
+  <si>
+    <t>H2O_HF_genecp.log</t>
+  </si>
+  <si>
+    <t>H2O_B3LYP_STO3G.log</t>
+  </si>
+  <si>
+    <t>H2O_CAMB3LYP_STO3G.log</t>
+  </si>
+  <si>
+    <t>H2O_HF_STO3G.log</t>
+  </si>
+  <si>
+    <t>B3LYP</t>
+  </si>
+  <si>
+    <t>CAMB3LYP</t>
+  </si>
+  <si>
+    <t>genecp</t>
+  </si>
+  <si>
+    <t>STO3G</t>
+  </si>
+  <si>
     <t>H2_B3LYP_genecp.log</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>B3LYP</t>
-  </si>
-  <si>
-    <t>genecp</t>
-  </si>
-  <si>
     <t>H2_B3LYP_631pGdp.log</t>
   </si>
   <si>
     <t>H2_CAMB3LYP_genecp.log</t>
   </si>
   <si>
+    <t>H2_CAMB3LYP_631pGdp.log</t>
+  </si>
+  <si>
     <t>H2_B3LYP_STO3G.log</t>
   </si>
   <si>
@@ -75,49 +123,7 @@
     <t>H2_HF_genecp.log</t>
   </si>
   <si>
-    <t>H2_HF_631pGdp.log</t>
-  </si>
-  <si>
     <t>H2_HF_STO3G.log</t>
-  </si>
-  <si>
-    <t>CAMB3LYP</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>631pGdp</t>
-  </si>
-  <si>
-    <t>STO3G</t>
-  </si>
-  <si>
-    <t>H2O_HF_631pGdp.log</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>H2O_HF_STO3G.log</t>
-  </si>
-  <si>
-    <t>H2O_HF_genecp.log</t>
-  </si>
-  <si>
-    <t>H2O_CAMB3LYP_genecp.log</t>
-  </si>
-  <si>
-    <t>H2O_B3LYP_631pGdp.log</t>
-  </si>
-  <si>
-    <t>H2O_CAMB3LYP_631pGdp.log</t>
-  </si>
-  <si>
-    <t>H2O_B3LYP_STO3G.log</t>
-  </si>
-  <si>
-    <t>H2O_CAMB3LYP_STO3G.log</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -509,22 +515,45 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>-76.0312305618</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>-1.18002386318</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>-1.13133356793</v>
+      </c>
+      <c r="F3">
+        <v>74.89989699387</v>
+      </c>
+      <c r="G3">
+        <v>2038.131057058994</v>
       </c>
     </row>
   </sheetData>
@@ -565,19 +594,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>-76.43404891350001</v>
+        <v>-76.438067936</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -588,25 +617,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>-1.17853935531</v>
+        <v>-1.17160857071</v>
       </c>
       <c r="F3">
-        <v>75.25550955819001</v>
+        <v>75.26645936528999</v>
       </c>
       <c r="G3">
-        <v>2047.807772791732</v>
+        <v>2048.105732372652</v>
       </c>
     </row>
   </sheetData>
@@ -647,19 +676,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>-75.32277510980001</v>
+        <v>-76.4057187329</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -670,25 +699,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>-1.16553553675</v>
+        <v>-1.17005773141</v>
       </c>
       <c r="F3">
-        <v>74.15723957305001</v>
+        <v>75.23566100149</v>
       </c>
       <c r="G3">
-        <v>2017.922308918093</v>
+        <v>2047.267665775945</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +727,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,16 +761,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>-1.18002386318</v>
+        <v>-76.0312305618</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -752,249 +781,249 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>-1.18002386318</v>
+        <v>-1.13133356793</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>74.89989699387</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2038.131057058994</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>-1.17853935531</v>
+        <v>-76.4661982408</v>
       </c>
       <c r="F4">
-        <v>0.001484507869999874</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.04039553745371457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>-1.17160857071</v>
+        <v>-76.438067936</v>
       </c>
       <c r="F5">
-        <v>0.008415292470000058</v>
+        <v>0.02813030480000123</v>
       </c>
       <c r="G5">
-        <v>0.2289918895181596</v>
+        <v>0.7654649760347534</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>-1.16553553675</v>
+        <v>-76.43404891350001</v>
       </c>
       <c r="F6">
-        <v>0.01448832642999998</v>
+        <v>0.0321493272999902</v>
       </c>
       <c r="G6">
-        <v>0.3942476458173014</v>
+        <v>0.8748282048909535</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>-1.15630980377</v>
+        <v>-76.4057187329</v>
       </c>
       <c r="F7">
-        <v>0.02371405941000004</v>
+        <v>0.06047950789999845</v>
       </c>
       <c r="G7">
-        <v>0.6452927562292752</v>
+        <v>1.645732081270018</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>-1.13305584011</v>
+        <v>-76.0612030643</v>
       </c>
       <c r="F8">
-        <v>0.04696802307000003</v>
+        <v>0.4049951764999946</v>
       </c>
       <c r="G8">
-        <v>1.278065662966999</v>
+        <v>11.02048574581195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>-1.13133356793</v>
+        <v>-76.0312305618</v>
       </c>
       <c r="F9">
-        <v>0.0486902952499999</v>
+        <v>0.4349676789999961</v>
       </c>
       <c r="G9">
-        <v>1.324931100165847</v>
+        <v>11.83607950034049</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>-1.11750588511</v>
+        <v>-75.32277510980001</v>
       </c>
       <c r="F10">
-        <v>0.06251797807000004</v>
+        <v>1.143423130999992</v>
       </c>
       <c r="G10">
-        <v>1.701201708453999</v>
+        <v>31.11414418689317</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>-76.0312305618</v>
+        <v>-75.2885985838</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.177599657000002</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>32.04413530648985</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>-1.13133356793</v>
+        <v>-74.9659009351</v>
       </c>
       <c r="F12">
-        <v>74.89989699387</v>
+        <v>1.500297305700002</v>
       </c>
       <c r="G12">
-        <v>2038.131057058994</v>
+        <v>40.82519010432504</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>-74.9659009351</v>
+        <v>-76.4661982408</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1005,25 +1034,25 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>-1.11750588511</v>
+        <v>-1.18002386318</v>
       </c>
       <c r="F14">
-        <v>73.84839504998999</v>
+        <v>75.28617437762</v>
       </c>
       <c r="G14">
-        <v>2009.518217063298</v>
+        <v>2048.642205459169</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1031,16 +1060,16 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
       <c r="E15">
-        <v>-76.0612030643</v>
+        <v>-1.18002386318</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1051,249 +1080,249 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>-1.13305584011</v>
+        <v>-1.17853935531</v>
       </c>
       <c r="F16">
-        <v>74.92814722419</v>
+        <v>0.001484507869999874</v>
       </c>
       <c r="G16">
-        <v>2038.899785376324</v>
+        <v>0.04039553745371457</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
       <c r="E17">
-        <v>-76.438067936</v>
+        <v>-1.17160857071</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.008415292470000058</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.2289918895181596</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>-76.43404891350001</v>
+        <v>-1.17005773141</v>
       </c>
       <c r="F18">
-        <v>0.004019022499988978</v>
+        <v>0.009966131769999942</v>
       </c>
       <c r="G18">
-        <v>0.1093632288562001</v>
+        <v>0.2711923980461765</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>-76.4057187329</v>
+        <v>-1.16553553675</v>
       </c>
       <c r="F19">
-        <v>0.03234920309999723</v>
+        <v>0.01448832642999998</v>
       </c>
       <c r="G19">
-        <v>0.8802671052352645</v>
+        <v>0.3942476458173014</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>-76.0612030643</v>
+        <v>-1.15630980377</v>
       </c>
       <c r="F20">
-        <v>0.3768648716999934</v>
+        <v>0.02371405941000004</v>
       </c>
       <c r="G20">
-        <v>10.2550207697772</v>
+        <v>0.6452927562292752</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
       <c r="E21">
-        <v>-76.0312305618</v>
+        <v>-1.13305584011</v>
       </c>
       <c r="F21">
-        <v>0.4068373741999949</v>
+        <v>0.04696802307000003</v>
       </c>
       <c r="G21">
-        <v>11.07061452430574</v>
+        <v>1.278065662966999</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>-75.32277510980001</v>
+        <v>-1.13133356793</v>
       </c>
       <c r="F22">
-        <v>1.11529282619999</v>
+        <v>0.0486902952499999</v>
       </c>
       <c r="G22">
-        <v>30.34867921085842</v>
+        <v>1.324931100165847</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>-75.2885985838</v>
+        <v>-1.11750588511</v>
       </c>
       <c r="F23">
-        <v>1.149469352200001</v>
+        <v>0.06251797807000004</v>
       </c>
       <c r="G23">
-        <v>31.2786703304551</v>
+        <v>1.701201708453999</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
       <c r="E24">
-        <v>-74.9659009351</v>
+        <v>-76.0612030643</v>
       </c>
       <c r="F24">
-        <v>1.472167000900001</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>40.05972512829028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
       <c r="E25">
-        <v>-76.4057187329</v>
+        <v>-1.13305584011</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>74.92814722419</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2038.899785376324</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>-75.2885985838</v>
+        <v>-76.43404891350001</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1304,42 +1333,42 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>-1.15630980377</v>
+        <v>-1.17853935531</v>
       </c>
       <c r="F27">
-        <v>74.13228878003</v>
+        <v>75.25550955819001</v>
       </c>
       <c r="G27">
-        <v>2017.243362908908</v>
+        <v>2047.807772791732</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>-76.438067936</v>
+        <v>-75.32277510980001</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1350,42 +1379,42 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>-1.17160857071</v>
+        <v>-1.16553553675</v>
       </c>
       <c r="F29">
-        <v>75.26645936528999</v>
+        <v>74.15723957305001</v>
       </c>
       <c r="G29">
-        <v>2048.105732372652</v>
+        <v>2017.922308918093</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>-76.43404891350001</v>
+        <v>-74.9659009351</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1396,42 +1425,42 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>-1.17853935531</v>
+        <v>-1.11750588511</v>
       </c>
       <c r="F31">
-        <v>75.25550955819001</v>
+        <v>73.84839504998999</v>
       </c>
       <c r="G31">
-        <v>2047.807772791732</v>
+        <v>2009.518217063298</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>-75.32277510980001</v>
+        <v>-75.2885985838</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1442,25 +1471,117 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>-1.16553553675</v>
+        <v>-1.15630980377</v>
       </c>
       <c r="F33">
-        <v>74.15723957305001</v>
+        <v>74.13228878003</v>
       </c>
       <c r="G33">
-        <v>2017.922308918093</v>
+        <v>2017.243362908908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>-76.438067936</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>-1.17160857071</v>
+      </c>
+      <c r="F35">
+        <v>75.26645936528999</v>
+      </c>
+      <c r="G35">
+        <v>2048.105732372652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>-76.4057187329</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>-1.17005773141</v>
+      </c>
+      <c r="F37">
+        <v>75.23566100149</v>
+      </c>
+      <c r="G37">
+        <v>2047.267665775945</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1501,19 +1622,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>-1.18002386318</v>
+        <v>-76.4661982408</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1524,163 +1645,186 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>-1.17853935531</v>
+        <v>-76.438067936</v>
       </c>
       <c r="F3">
-        <v>0.001484507869999874</v>
+        <v>0.02813030480000123</v>
       </c>
       <c r="G3">
-        <v>0.04039553745371457</v>
+        <v>0.7654649760347534</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4">
-        <v>-1.17160857071</v>
+        <v>-76.43404891350001</v>
       </c>
       <c r="F4">
-        <v>0.008415292470000058</v>
+        <v>0.0321493272999902</v>
       </c>
       <c r="G4">
-        <v>0.2289918895181596</v>
+        <v>0.8748282048909535</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>-1.16553553675</v>
+        <v>-76.4057187329</v>
       </c>
       <c r="F5">
-        <v>0.01448832642999998</v>
+        <v>0.06047950789999845</v>
       </c>
       <c r="G5">
-        <v>0.3942476458173014</v>
+        <v>1.645732081270018</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>-1.15630980377</v>
+        <v>-76.0612030643</v>
       </c>
       <c r="F6">
-        <v>0.02371405941000004</v>
+        <v>0.4049951764999946</v>
       </c>
       <c r="G6">
-        <v>0.6452927562292752</v>
+        <v>11.02048574581195</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>-1.13305584011</v>
+        <v>-76.0312305618</v>
       </c>
       <c r="F7">
-        <v>0.04696802307000003</v>
+        <v>0.4349676789999961</v>
       </c>
       <c r="G7">
-        <v>1.278065662966999</v>
+        <v>11.83607950034049</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>-1.13133356793</v>
+        <v>-75.32277510980001</v>
       </c>
       <c r="F8">
-        <v>0.0486902952499999</v>
+        <v>1.143423130999992</v>
       </c>
       <c r="G8">
-        <v>1.324931100165847</v>
+        <v>31.11414418689317</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>-1.11750588511</v>
+        <v>-75.2885985838</v>
       </c>
       <c r="F9">
-        <v>0.06251797807000004</v>
+        <v>1.177599657000002</v>
       </c>
       <c r="G9">
-        <v>1.701201708453999</v>
+        <v>32.04413530648985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>-74.9659009351</v>
+      </c>
+      <c r="F10">
+        <v>1.500297305700002</v>
+      </c>
+      <c r="G10">
+        <v>40.82519010432504</v>
       </c>
     </row>
   </sheetData>
@@ -1721,19 +1865,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>-76.0312305618</v>
+        <v>-76.4661982408</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1744,25 +1888,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>-1.13133356793</v>
+        <v>-1.18002386318</v>
       </c>
       <c r="F3">
-        <v>74.89989699387</v>
+        <v>75.28617437762</v>
       </c>
       <c r="G3">
-        <v>2038.131057058994</v>
+        <v>2048.642205459169</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1803,19 +1947,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>-74.9659009351</v>
+        <v>-1.18002386318</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1826,25 +1970,186 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>-1.17853935531</v>
+      </c>
+      <c r="F3">
+        <v>0.001484507869999874</v>
+      </c>
+      <c r="G3">
+        <v>0.04039553745371457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>-1.17160857071</v>
+      </c>
+      <c r="F4">
+        <v>0.008415292470000058</v>
+      </c>
+      <c r="G4">
+        <v>0.2289918895181596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>-1.17005773141</v>
+      </c>
+      <c r="F5">
+        <v>0.009966131769999942</v>
+      </c>
+      <c r="G5">
+        <v>0.2711923980461765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>-1.16553553675</v>
+      </c>
+      <c r="F6">
+        <v>0.01448832642999998</v>
+      </c>
+      <c r="G6">
+        <v>0.3942476458173014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>-1.15630980377</v>
+      </c>
+      <c r="F7">
+        <v>0.02371405941000004</v>
+      </c>
+      <c r="G7">
+        <v>0.6452927562292752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>-1.13305584011</v>
+      </c>
+      <c r="F8">
+        <v>0.04696802307000003</v>
+      </c>
+      <c r="G8">
+        <v>1.278065662966999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>-1.13133356793</v>
+      </c>
+      <c r="F9">
+        <v>0.0486902952499999</v>
+      </c>
+      <c r="G9">
+        <v>1.324931100165847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
         <v>-1.11750588511</v>
       </c>
-      <c r="F3">
-        <v>73.84839504998999</v>
-      </c>
-      <c r="G3">
-        <v>2009.518217063298</v>
+      <c r="F10">
+        <v>0.06251797807000004</v>
+      </c>
+      <c r="G10">
+        <v>1.701201708453999</v>
       </c>
     </row>
   </sheetData>
@@ -1885,16 +2190,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>-76.0612030643</v>
@@ -1908,16 +2213,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>-1.13305584011</v>
@@ -1936,7 +2241,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,19 +2272,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>-76.438067936</v>
+        <v>-76.43404891350001</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1990,163 +2295,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>-76.43404891350001</v>
+        <v>-1.17853935531</v>
       </c>
       <c r="F3">
-        <v>0.004019022499988978</v>
+        <v>75.25550955819001</v>
       </c>
       <c r="G3">
-        <v>0.1093632288562001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>-76.4057187329</v>
-      </c>
-      <c r="F4">
-        <v>0.03234920309999723</v>
-      </c>
-      <c r="G4">
-        <v>0.8802671052352645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>-76.0612030643</v>
-      </c>
-      <c r="F5">
-        <v>0.3768648716999934</v>
-      </c>
-      <c r="G5">
-        <v>10.2550207697772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>-76.0312305618</v>
-      </c>
-      <c r="F6">
-        <v>0.4068373741999949</v>
-      </c>
-      <c r="G6">
-        <v>11.07061452430574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>-75.32277510980001</v>
-      </c>
-      <c r="F7">
-        <v>1.11529282619999</v>
-      </c>
-      <c r="G7">
-        <v>30.34867921085842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>-75.2885985838</v>
-      </c>
-      <c r="F8">
-        <v>1.149469352200001</v>
-      </c>
-      <c r="G8">
-        <v>31.2786703304551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>-74.9659009351</v>
-      </c>
-      <c r="F9">
-        <v>1.472167000900001</v>
-      </c>
-      <c r="G9">
-        <v>40.05972512829028</v>
+        <v>2047.807772791732</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2323,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2187,25 +2354,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>-76.4057187329</v>
+        <v>-75.32277510980001</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>-1.16553553675</v>
+      </c>
+      <c r="F3">
+        <v>74.15723957305001</v>
+      </c>
+      <c r="G3">
+        <v>2017.922308918093</v>
       </c>
     </row>
   </sheetData>
@@ -2246,19 +2436,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>-75.2885985838</v>
+        <v>-74.9659009351</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2269,25 +2459,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>-1.15630980377</v>
+        <v>-1.11750588511</v>
       </c>
       <c r="F3">
-        <v>74.13228878003</v>
+        <v>73.84839504998999</v>
       </c>
       <c r="G3">
-        <v>2017.243362908908</v>
+        <v>2009.518217063298</v>
       </c>
     </row>
   </sheetData>
@@ -2328,19 +2518,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>-76.438067936</v>
+        <v>-75.2885985838</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2351,25 +2541,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>-1.17160857071</v>
+        <v>-1.15630980377</v>
       </c>
       <c r="F3">
-        <v>75.26645936528999</v>
+        <v>74.13228878003</v>
       </c>
       <c r="G3">
-        <v>2048.105732372652</v>
+        <v>2017.243362908908</v>
       </c>
     </row>
   </sheetData>
